--- a/WorkBot/refactor/data/orders/FingerLakes Farms/CompletedOrders/FingerLakes Farms_Downtown_2025-07-25.xlsx
+++ b/WorkBot/refactor/data/orders/FingerLakes Farms/CompletedOrders/FingerLakes Farms_Downtown_2025-07-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>47.50</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>26.00</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>26.00</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>14.00</t>
         </is>
       </c>
     </row>
@@ -634,6 +634,60 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>40.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Natalie's - Lemonade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>004014</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Natalie's - Strawberry Lemonade</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13.90</t>
         </is>
       </c>
     </row>
